--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -163,6 +163,9 @@
       </rPr>
       <t xml:space="preserve"> consider stop-words, synonyms, etc for dictionary</t>
     </r>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -341,25 +344,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -645,7 +648,7 @@
   <dimension ref="B1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,7 +681,7 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -687,7 +690,7 @@
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -696,7 +699,7 @@
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -704,15 +707,15 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="16">
+      <c r="B4" s="19">
         <v>8</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -723,37 +726,37 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="8"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="8"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="8"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,19 +768,19 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="8"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="16">
+      <c r="B9" s="19">
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -789,7 +792,7 @@
       <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -797,7 +800,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,9 +830,12 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -842,7 +848,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,7 +863,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="16">
+      <c r="B14" s="19">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -866,7 +872,7 @@
       <c r="F14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -874,7 +880,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,7 +892,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,7 +904,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -910,7 +916,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,7 +928,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="16">
+      <c r="B19" s="19">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -931,7 +937,7 @@
       <c r="F19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -939,7 +945,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,7 +957,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
@@ -963,7 +969,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -975,7 +981,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,7 +993,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="16">
+      <c r="B24" s="19">
         <v>12</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -996,7 +1002,7 @@
       <c r="F24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -1004,7 +1010,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1022,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1034,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1046,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Historic review &amp; time frame of data</t>
+  </si>
+  <si>
+    <t>Corpus generation</t>
+  </si>
+  <si>
+    <t>Sample generation</t>
+  </si>
+  <si>
+    <t>Dictionaries &amp; simplification techniques</t>
   </si>
 </sst>
 </file>
@@ -648,7 +660,7 @@
   <dimension ref="B1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +733,9 @@
       <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="J4" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -786,6 +801,9 @@
       <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
@@ -804,11 +822,17 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
@@ -819,11 +843,17 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
@@ -843,6 +873,9 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,11 +885,17 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
